--- a/files/state_data/surgeon.xlsx
+++ b/files/state_data/surgeon.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t xml:space="preserve">Area Name</t>
   </si>
@@ -67,9 +67,6 @@
     <t xml:space="preserve">Connecticut(0900000)</t>
   </si>
   <si>
-    <t xml:space="preserve">           -</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delaware(1000000)</t>
   </si>
   <si>
@@ -242,12 +239,6 @@
   </si>
   <si>
     <t xml:space="preserve">        1610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico(7200000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          30</t>
   </si>
   <si>
     <t xml:space="preserve">Rhode Island(4400000)</t>
@@ -314,6 +305,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -422,16 +414,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B54" activeCellId="0" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="24.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,105 +482,105 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
@@ -596,103 +588,103 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="2" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>15</v>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -700,47 +692,47 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -748,98 +740,90 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>75</v>
+      <c r="B41" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
